--- a/[5] Tester Results/SIGNIFICANT_RECORDER_SPLIT_PARAMETRIC.xlsx
+++ b/[5] Tester Results/SIGNIFICANT_RECORDER_SPLIT_PARAMETRIC.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,14 +473,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3.085825676993435</v>
+        <v>-2.460574145747453</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00378113570867354</v>
+        <v>0.01804834277960999</v>
       </c>
     </row>
     <row r="3">
@@ -496,14 +496,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-4.325908259655631</v>
+        <v>-3.063841409970127</v>
       </c>
       <c r="E3" t="n">
-        <v>8.989450123506989e-05</v>
+        <v>0.004687175306584991</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +519,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-5.965907885372935</v>
+        <v>-2.606640645969486</v>
       </c>
       <c r="E4" t="n">
-        <v>4.581443145332514e-07</v>
+        <v>0.01333414959924862</v>
       </c>
     </row>
     <row r="5">
@@ -537,19 +537,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-2.575214804205881</v>
+        <v>-2.756229946992251</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01326488852214442</v>
+        <v>0.008389837099551293</v>
       </c>
     </row>
     <row r="6">
@@ -560,19 +560,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-2.331504905126953</v>
+        <v>-2.905711326279232</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02598668926093869</v>
+        <v>0.00565644511080046</v>
       </c>
     </row>
     <row r="7">
@@ -583,19 +583,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-3.418531215966448</v>
+        <v>-3.238964238304343</v>
       </c>
       <c r="E7" t="n">
-        <v>0.001369412438110165</v>
+        <v>0.002201549923869397</v>
       </c>
     </row>
     <row r="8">
@@ -606,19 +606,19 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2.520692931382333</v>
+        <v>-2.866417421171514</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0176282823366323</v>
+        <v>0.00723832449156143</v>
       </c>
     </row>
     <row r="9">
@@ -629,134 +629,134 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-2.509642468608484</v>
+        <v>-2.078650667517213</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01566187553020446</v>
+        <v>0.04363059673073677</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>-2.592068389054457</v>
+        <v>5.310821352722148</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01277862032314249</v>
+        <v>2.883219018512703e-06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>-2.044801418545972</v>
+        <v>5.210297268832559</v>
       </c>
       <c r="E11" t="n">
-        <v>0.04658380123158411</v>
+        <v>4.014291588481901e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>-2.576079356445377</v>
+        <v>4.941857610384526</v>
       </c>
       <c r="E12" t="n">
-        <v>0.01322529230266467</v>
+        <v>1.05814395601518e-05</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>-4.540124620500786</v>
+        <v>4.902790332077012</v>
       </c>
       <c r="E13" t="n">
-        <v>3.862673575531438e-05</v>
+        <v>1.179208675591878e-05</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>-3.947531985219319</v>
+        <v>2.070148897469909</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0002966588517540722</v>
+        <v>0.04376459711967767</v>
       </c>
     </row>
     <row r="15">
@@ -772,14 +772,14 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>4.571676905862146</v>
+        <v>5.737592964941371</v>
       </c>
       <c r="E15" t="n">
-        <v>3.918780832187617e-05</v>
+        <v>7.985747265055315e-07</v>
       </c>
     </row>
     <row r="16">
@@ -790,19 +790,19 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4.520753722863978</v>
+        <v>4.46862562050216</v>
       </c>
       <c r="E16" t="n">
-        <v>4.738681856749584e-05</v>
+        <v>4.768206277626769e-05</v>
       </c>
     </row>
     <row r="17">
@@ -813,19 +813,19 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3.832473031012515</v>
+        <v>4.406006831808901</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0004430458530310773</v>
+        <v>5.874942731431676e-05</v>
       </c>
     </row>
     <row r="18">
@@ -836,19 +836,19 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>5.559121246123807</v>
+        <v>15.54966149788872</v>
       </c>
       <c r="E18" t="n">
-        <v>1.32096986097132e-06</v>
+        <v>1.561349340582604e-20</v>
       </c>
     </row>
     <row r="19">
@@ -859,19 +859,19 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>5.743297179632497</v>
+        <v>16.32144934160341</v>
       </c>
       <c r="E19" t="n">
-        <v>5.803842452126865e-07</v>
+        <v>2.293301356314218e-21</v>
       </c>
     </row>
     <row r="20">
@@ -882,19 +882,19 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>8.097226956367495</v>
+        <v>15.45464528167865</v>
       </c>
       <c r="E20" t="n">
-        <v>1.392968055752164e-10</v>
+        <v>2.64644521503505e-20</v>
       </c>
     </row>
     <row r="21">
@@ -910,14 +910,14 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>-5.764496897054647</v>
+        <v>17.78771844886273</v>
       </c>
       <c r="E21" t="n">
-        <v>7.590340343781527e-06</v>
+        <v>9.022629260105085e-23</v>
       </c>
     </row>
     <row r="22">
@@ -933,14 +933,14 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>7.682925220986325</v>
+        <v>14.3748028021163</v>
       </c>
       <c r="E22" t="n">
-        <v>1.140915957376975e-09</v>
+        <v>4.677804295639407e-19</v>
       </c>
     </row>
     <row r="23">
@@ -951,19 +951,19 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>8.721120339147788</v>
+        <v>-2.356602214354207</v>
       </c>
       <c r="E23" t="n">
-        <v>6.257789740232576e-11</v>
+        <v>0.02367977412104306</v>
       </c>
     </row>
     <row r="24">
@@ -974,19 +974,19 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>23.63556130535668</v>
+        <v>-2.407883830570086</v>
       </c>
       <c r="E24" t="n">
-        <v>4.163544464085359e-28</v>
+        <v>0.02101647268267917</v>
       </c>
     </row>
     <row r="25">
@@ -997,7 +997,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>23.86444100434764</v>
+        <v>-2.104399315054136</v>
       </c>
       <c r="E25" t="n">
-        <v>2.144756599319223e-28</v>
+        <v>0.04338059775973194</v>
       </c>
     </row>
     <row r="26">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1029,10 +1029,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>19.30816330941752</v>
+        <v>-2.601235368912759</v>
       </c>
       <c r="E26" t="n">
-        <v>5.666952138420047e-24</v>
+        <v>0.01428956761697206</v>
       </c>
     </row>
     <row r="27">
@@ -1043,134 +1043,19 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>17.74031077838049</v>
+        <v>2.247071987764336</v>
       </c>
       <c r="E27" t="n">
-        <v>5.963172227360686e-21</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>June26</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>AUC</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>10.78934118427438</v>
-      </c>
-      <c r="E28" t="n">
-        <v>4.224859353224972e-13</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>peakTime</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>2.454067162786473</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.01957567715404882</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>RMS</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>7.007975396462975</v>
-      </c>
-      <c r="E30" t="n">
-        <v>8.369439574807111e-09</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>tau</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>9.90339304691541</v>
-      </c>
-      <c r="E31" t="n">
-        <v>3.129829136194549e-13</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>AUC</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>8.467666600999436</v>
-      </c>
-      <c r="E32" t="n">
-        <v>1.693898954892085e-10</v>
+        <v>0.03269972456335371</v>
       </c>
     </row>
   </sheetData>

--- a/[5] Tester Results/SIGNIFICANT_RECORDER_SPLIT_PARAMETRIC.xlsx
+++ b/[5] Tester Results/SIGNIFICANT_RECORDER_SPLIT_PARAMETRIC.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -795,7 +795,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -818,14 +818,14 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4.406006831808901</v>
+        <v>15.54966149788872</v>
       </c>
       <c r="E17" t="n">
-        <v>5.874942731431676e-05</v>
+        <v>1.561349340582604e-20</v>
       </c>
     </row>
     <row r="18">
@@ -841,14 +841,14 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15.54966149788872</v>
+        <v>16.32144934160341</v>
       </c>
       <c r="E18" t="n">
-        <v>1.561349340582604e-20</v>
+        <v>2.293301356314218e-21</v>
       </c>
     </row>
     <row r="19">
@@ -864,14 +864,14 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>16.32144934160341</v>
+        <v>15.45464528167865</v>
       </c>
       <c r="E19" t="n">
-        <v>2.293301356314218e-21</v>
+        <v>2.64644521503505e-20</v>
       </c>
     </row>
     <row r="20">
@@ -887,14 +887,14 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>15.45464528167865</v>
+        <v>17.78771844886273</v>
       </c>
       <c r="E20" t="n">
-        <v>2.64644521503505e-20</v>
+        <v>9.022629260105085e-23</v>
       </c>
     </row>
     <row r="21">
@@ -910,14 +910,14 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>17.78771844886273</v>
+        <v>14.3748028021163</v>
       </c>
       <c r="E21" t="n">
-        <v>9.022629260105085e-23</v>
+        <v>4.677804295639407e-19</v>
       </c>
     </row>
     <row r="22">
@@ -928,19 +928,19 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>14.3748028021163</v>
+        <v>-2.356602214354207</v>
       </c>
       <c r="E22" t="n">
-        <v>4.677804295639407e-19</v>
+        <v>0.02367977412104306</v>
       </c>
     </row>
     <row r="23">
@@ -956,14 +956,14 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>-2.356602214354207</v>
+        <v>-2.104399315054136</v>
       </c>
       <c r="E23" t="n">
-        <v>0.02367977412104306</v>
+        <v>0.04338059775973194</v>
       </c>
     </row>
     <row r="24">
@@ -979,14 +979,14 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>-2.407883830570086</v>
+        <v>-2.601235368912759</v>
       </c>
       <c r="E24" t="n">
-        <v>0.02101647268267917</v>
+        <v>0.01428956761697206</v>
       </c>
     </row>
     <row r="25">
@@ -1002,59 +1002,13 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>-2.104399315054136</v>
+        <v>2.247071987764336</v>
       </c>
       <c r="E25" t="n">
-        <v>0.04338059775973194</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>PTTA</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>-2.601235368912759</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.01428956761697206</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>AUC</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>2.247071987764336</v>
-      </c>
-      <c r="E27" t="n">
         <v>0.03269972456335371</v>
       </c>
     </row>
